--- a/biology/Médecine/Jehan_Yperman/Jehan_Yperman.xlsx
+++ b/biology/Médecine/Jehan_Yperman/Jehan_Yperman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jehan Yperman est un chirurgien flamand, né vers 1260 à Ypres[1] et mort vers 1331.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jehan Yperman est un chirurgien flamand, né vers 1260 à Ypres et mort vers 1331.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yperman étudie à Paris à la Confrérie de Saint-Côme et de Saint-Damien avec Lanfranc de Milan, qu'il cite souvent dans ses écrits. Il devient chirurgien après 1297[2] et s'installe à Ypres vers 1303.
-Il est le premier auteur d'un ouvrage de médecine en langue néerlandaise, ce qui explique qu'on a pu le qualifier de "père de la chirurgie flamande"[3]. Deux de ses manuscrits[Lesquels ?] sont découverts et édités au XIXe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yperman étudie à Paris à la Confrérie de Saint-Côme et de Saint-Damien avec Lanfranc de Milan, qu'il cite souvent dans ses écrits. Il devient chirurgien après 1297 et s'installe à Ypres vers 1303.
+Il est le premier auteur d'un ouvrage de médecine en langue néerlandaise, ce qui explique qu'on a pu le qualifier de "père de la chirurgie flamande". Deux de ses manuscrits[Lesquels ?] sont découverts et édités au XIXe siècle.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl + fr) Corneille Broeckx (dir.), La chirurgie de maître Jehan Yperman, chirurgien belge (XIIIe – XIVe siècle) : publiée pour la première fois, d'après la copie flamande de Cambridge, Anvers, Buschmann, 1863
 (nl + fr) Traité de médecine pratique de maître Jehan Yperman, médecin belge (XIIIe – XIVe siècle), Anvers, Buschmann, 1867</t>
